--- a/IntegartionPackage3.xlsx
+++ b/IntegartionPackage3.xlsx
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
